--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1683103.32651933</v>
+        <v>-1685804.19523673</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>63.31863205490885</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>173.3438976120855</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>23.73521368207777</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>61.18421556648135</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>201.2546550247256</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>213.2066220932652</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>90.4023059368286</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>16.37989657775974</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.78481324925406</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>48.52727932136504</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>38.04469089638155</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>35.96020998442041</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922657</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>111.5512144998747</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701339</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>46.86766651429448</v>
+        <v>53.76947475493755</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>100.9884800080869</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>138.2893995353468</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>88.27810958517578</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>84.8780074336928</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545296</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,7 +3661,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261727</v>
@@ -3673,7 +3673,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>901.3425442071332</v>
+        <v>1313.273607737845</v>
       </c>
       <c r="C2" t="n">
-        <v>901.3425442071332</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="D2" t="n">
-        <v>901.3425442071332</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E2" t="n">
-        <v>901.3425442071332</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,13 +4328,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2387.244482327342</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2387.244482327342</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2056.181594983771</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1703.412939713657</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182945</v>
+        <v>1703.412939713657</v>
       </c>
       <c r="Y2" t="n">
-        <v>901.3425442071332</v>
+        <v>1313.273607737845</v>
       </c>
     </row>
     <row r="3">
@@ -4389,13 +4389,13 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
@@ -4407,28 +4407,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>599.4122767260736</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1145.126459585383</v>
+        <v>689.90341785788</v>
       </c>
       <c r="C4" t="n">
-        <v>1145.126459585383</v>
+        <v>520.9672349299731</v>
       </c>
       <c r="D4" t="n">
-        <v>1145.126459585383</v>
+        <v>370.8505955176373</v>
       </c>
       <c r="E4" t="n">
-        <v>1145.126459585383</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F4" t="n">
-        <v>1145.126459585383</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936618</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936618</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936618</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.127174075598</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2040.148693270334</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1751.030355774172</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1496.345867568285</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>1206.928697531324</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X4" t="n">
-        <v>1145.126459585383</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="Y4" t="n">
-        <v>1145.126459585383</v>
+        <v>871.5518826881197</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1586.913505738324</v>
+        <v>909.233203697441</v>
       </c>
       <c r="C5" t="n">
-        <v>1217.950988797912</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331021</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800315</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800315</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800315</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872922</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923563</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400157</v>
+        <v>2437.640120926628</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400157</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400157</v>
+        <v>2025.606949204447</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400157</v>
+        <v>2025.606949204447</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400157</v>
+        <v>1672.838293934333</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139077</v>
+        <v>1299.372535673253</v>
       </c>
       <c r="Y5" t="n">
-        <v>1973.513345802446</v>
+        <v>909.233203697441</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4638,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800315</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500115</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735144</v>
+        <v>423.1489515180663</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049863</v>
+        <v>1057.327935297105</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1420.589954256326</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761152</v>
+        <v>1807.875082853271</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937314</v>
+        <v>2139.945518029433</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>565.1427566090761</v>
+        <v>623.9439354791607</v>
       </c>
       <c r="C7" t="n">
-        <v>565.1427566090761</v>
+        <v>623.9439354791607</v>
       </c>
       <c r="D7" t="n">
-        <v>565.1427566090761</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E7" t="n">
-        <v>565.1427566090761</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F7" t="n">
         <v>473.8272960668249</v>
@@ -4723,7 +4723,7 @@
         <v>51.24678656800315</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312206</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020477</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1423.272022155814</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.233965749941</v>
+        <v>1134.153684659651</v>
       </c>
       <c r="V7" t="n">
-        <v>1082.549477544054</v>
+        <v>1134.153684659651</v>
       </c>
       <c r="W7" t="n">
-        <v>793.1323075070934</v>
+        <v>844.7365146226908</v>
       </c>
       <c r="X7" t="n">
-        <v>565.1427566090761</v>
+        <v>844.7365146226908</v>
       </c>
       <c r="Y7" t="n">
-        <v>565.1427566090761</v>
+        <v>623.9439354791607</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.84766053555</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.885143595139</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>874.6194449883883</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>488.8311923901441</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>481.8856916409406</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G8" t="n">
-        <v>66.18094136522944</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H8" t="n">
-        <v>66.18094136522944</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362831</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816094</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872926</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923563</v>
@@ -4823,31 +4823,31 @@
         <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.31341879663</v>
+        <v>2022.530799662411</v>
       </c>
       <c r="W8" t="n">
-        <v>1975.31341879663</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="X8" t="n">
-        <v>1601.84766053555</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="Y8" t="n">
-        <v>1601.84766053555</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380218</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>909.2465818694936</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1800.470091281865</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
         <v>2239.046898434118</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>305.8408313751036</v>
+        <v>809.3867773625716</v>
       </c>
       <c r="C10" t="n">
-        <v>305.8408313751036</v>
+        <v>640.4505944346647</v>
       </c>
       <c r="D10" t="n">
-        <v>305.8408313751036</v>
+        <v>490.333955022329</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751036</v>
+        <v>342.4208614399358</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>195.5309139420255</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>195.5309139420255</v>
       </c>
       <c r="H10" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="V10" t="n">
-        <v>859.5709967387889</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="W10" t="n">
-        <v>570.1538267018284</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="X10" t="n">
-        <v>342.1642758038111</v>
+        <v>1211.827821336341</v>
       </c>
       <c r="Y10" t="n">
-        <v>305.8408313751036</v>
+        <v>991.0352421928113</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,10 +5127,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263523</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356163</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232806</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408875</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429771</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237293</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093763</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5270,22 +5270,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5294,22 +5294,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876688</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D16" t="n">
-        <v>430.7826650753331</v>
+        <v>666.7308394007268</v>
       </c>
       <c r="E16" t="n">
-        <v>282.8695714929399</v>
+        <v>518.8177458183337</v>
       </c>
       <c r="F16" t="n">
-        <v>282.8695714929399</v>
+        <v>371.9277983204233</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.3929232910542</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>782.4567403631473</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>632.3401009508116</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>484.4270073684185</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>337.5370598705081</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.041388121294</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,52 +5738,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5975,25 +5975,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>265.073174061852</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004714</v>
@@ -6212,64 +6212,64 @@
         <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168625</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>870.3164745246301</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>701.3802915967232</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>551.2636521843874</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>403.3505586019943</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>403.3505586019943</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1272.7575184984</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.96493935487</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6598,28 +6598,28 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
         <v>483.825546038073</v>
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6695,19 +6695,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6716,7 +6716,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,55 +7069,55 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547835</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7406,19 +7406,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7427,10 +7427,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656818</v>
@@ -7567,16 +7567,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954147</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,19 +7643,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
@@ -7664,10 +7664,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
         <v>782.5512955656819</v>
@@ -7795,7 +7795,7 @@
         <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380733</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311328</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,13 +7819,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8055,31 +8055,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.454437538929767</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
-        <v>168.7434581780648</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.904471462189</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>240.4465442417425</v>
+        <v>60.50016306149422</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878338</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>193.3273467878351</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-7.624537653104762e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,13 +22556,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>129.6735841095965</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>33.31428736814826</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>37.16142055125535</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>67.52345255978867</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>114.1584408891625</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>118.6564717779744</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>64.53565828418192</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>41.54258064659049</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>77.24602870709306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>80.64613085857604</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99467.00901045142</v>
+        <v>99467.00901045144</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
@@ -26353,7 +26353,7 @@
         <v>123156.2654796425</v>
       </c>
       <c r="P2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>1.469155386075727e-10</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245454</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363175</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44177.68267983168</v>
+        <v>44177.68267983169</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618636</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426732042</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426732018</v>
+        <v>8117.312426731943</v>
       </c>
       <c r="G4" t="n">
+        <v>8117.312426731952</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8117.312426731956</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8117.312426731936</v>
+      </c>
+      <c r="J4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="H4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8117.312426731939</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8117.312426731918</v>
-      </c>
       <c r="K4" t="n">
+        <v>16108.17168982544</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16108.17168982541</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16108.17168982541</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16108.17168982546</v>
+      </c>
+      <c r="O4" t="n">
         <v>16108.17168982543</v>
       </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
         <v>16108.17168982542</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16108.17168982542</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16108.17168982543</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16108.17168982544</v>
-      </c>
-      <c r="P4" t="n">
-        <v>16108.17168982543</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984476</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1152400.229685144</v>
+        <v>-1152795.050626298</v>
       </c>
       <c r="C6" t="n">
-        <v>-104099.5072220661</v>
+        <v>-104099.507222066</v>
       </c>
       <c r="D6" t="n">
         <v>-104099.5072220659</v>
       </c>
       <c r="E6" t="n">
-        <v>-495653.2939216841</v>
+        <v>-495688.0318471193</v>
       </c>
       <c r="F6" t="n">
-        <v>11832.14770286177</v>
+        <v>11797.40977742613</v>
       </c>
       <c r="G6" t="n">
-        <v>11832.14770286184</v>
+        <v>11797.40977742613</v>
       </c>
       <c r="H6" t="n">
-        <v>11832.14770286185</v>
+        <v>11797.40977742612</v>
       </c>
       <c r="I6" t="n">
-        <v>11832.14770286185</v>
+        <v>11797.40977742612</v>
       </c>
       <c r="J6" t="n">
-        <v>-155773.0301071208</v>
+        <v>-155807.7680325565</v>
       </c>
       <c r="K6" t="n">
         <v>-15543.74005773026</v>
       </c>
       <c r="L6" t="n">
-        <v>3883.977935901683</v>
+        <v>3883.977935901668</v>
       </c>
       <c r="M6" t="n">
-        <v>-128723.315793025</v>
+        <v>-128723.3157930249</v>
       </c>
       <c r="N6" t="n">
-        <v>3883.977935901668</v>
+        <v>3883.977935901639</v>
       </c>
       <c r="O6" t="n">
         <v>3883.977935901654</v>
       </c>
       <c r="P6" t="n">
-        <v>-15543.7400577301</v>
+        <v>-15543.7400577302</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203969</v>
       </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
+        <v>934.0648921175394</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175396</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,22 +26793,22 @@
         <v>640.5848321000393</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241342</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>213.8838295772061</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>213.8838295772067</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>122.6987489644914</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>164.5254398225558</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987943</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>49.79059510373639</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>173.0313165627884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>55.01874208610265</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>204.3687994194522</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>50.92509942321643</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>300.713689396048</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>109.2068182587473</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.6244433676744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>3.168371720796298e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-5.350800898672441e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203966</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181061</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491901</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767382</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
         <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,22 +31361,22 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
         <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405676</v>
@@ -31391,10 +31391,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31437,19 +31437,19 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
         <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
         <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
         <v>264.0341136849628</v>
@@ -31461,22 +31461,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
         <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,46 +31674,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>573.8098963904297</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>572.8682992214867</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,25 +32783,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>301.1823051500296</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
@@ -33020,7 +33020,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>414.644818552487</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33494,34 +33494,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175677</v>
@@ -33731,34 +33731,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817577</v>
@@ -33968,13 +33968,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236488</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34162,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,28 +34205,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,7 +34235,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34302,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236488</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34399,7 +34399,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,28 +34442,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,7 +34472,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34539,7 +34539,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>304.13479817678</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>504.1681401741877</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
         <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939913</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091748</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560636</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378504</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928741</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961232</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>490.1260733652749</v>
+        <v>310.1796921850266</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977098</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35109,10 +35109,10 @@
         <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805409</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313188</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>443.0068759113673</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924728</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>431.6758624684114</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>430.2720547770423</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.4543240367771</v>
@@ -36364,7 +36364,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193518</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,19 +36680,19 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36999,16 +36999,16 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M35" t="n">
         <v>735.300110790295</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.4543240367771</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
